--- a/data/trans_dic/P34C_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,11; 30,1</t>
+          <t>23,18; 30,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,38; 24,69</t>
+          <t>19,28; 24,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,32; 26,02</t>
+          <t>21,64; 26,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,05; 48,64</t>
+          <t>42,03; 49,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,77; 42,42</t>
+          <t>33,26; 42,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,77; 44,9</t>
+          <t>39,08; 44,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,48; 58,92</t>
+          <t>50,45; 58,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,51; 62,38</t>
+          <t>55,54; 62,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,28; 59,42</t>
+          <t>54,26; 59,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,39; 46,71</t>
+          <t>42,05; 46,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,48; 41,22</t>
+          <t>35,11; 41,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,33; 43,18</t>
+          <t>39,65; 43,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34C_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>24,06%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 30,18</t>
+          <t>23,63; 30,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,28; 24,64</t>
+          <t>19,45; 24,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,64; 26,06</t>
+          <t>21,99; 26,38</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,23%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>36,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>39,9%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,03; 49,04</t>
+          <t>28,45; 49,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,26; 42,29</t>
+          <t>26,59; 41,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,08; 44,94</t>
+          <t>32,47; 44,48</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>59,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>57,04%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,45; 58,86</t>
+          <t>50,28; 59,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,54; 62,15</t>
+          <t>55,86; 62,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,26; 59,46</t>
+          <t>54,35; 59,78</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>40,23%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,05; 46,78</t>
+          <t>34,08; 46,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,11; 41,21</t>
+          <t>29,7; 41,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,65; 43,35</t>
+          <t>35,46; 43,18</t>
         </is>
       </c>
     </row>
